--- a/data/L2-MS.xlsx
+++ b/data/L2-MS.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/Vérification heures IEAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BAD80293-393F-2C4E-86B9-EA38807C2AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277AB02A-8EBC-1047-B067-C5680878D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
-    <sheet name="L2-EM" sheetId="1" r:id="rId1"/>
+    <sheet name="L2-MS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -521,7 +521,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/L2-MS.xlsx
+++ b/data/L2-MS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277AB02A-8EBC-1047-B067-C5680878D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C20A5C-4581-3C48-AD8E-35E4AF9B73B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>ALG044B1</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +535,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,19 +552,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -578,19 +584,22 @@
         <v>36</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -607,19 +616,22 @@
         <v>36</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -636,19 +648,22 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
         <v>44</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -665,19 +680,22 @@
         <v>12</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -694,19 +712,22 @@
         <v>14</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -723,19 +744,22 @@
         <v>2</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -752,19 +776,22 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>14</v>
       </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -781,19 +808,22 @@
         <v>2</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -810,19 +840,22 @@
         <v>2</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
       <c r="H10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -839,19 +872,22 @@
         <v>26</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -868,19 +904,22 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
         <v>44</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -897,19 +936,22 @@
         <v>28</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -926,19 +968,22 @@
         <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -955,20 +1000,23 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J33">
     <sortCondition ref="B2:B33"/>
     <sortCondition ref="A2:A33"/>
   </sortState>

--- a/data/L2-MS.xlsx
+++ b/data/L2-MS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C20A5C-4581-3C48-AD8E-35E4AF9B73B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7E08C-0884-F44C-B468-4423900CB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19560" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="L2-MS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
